--- a/sputnik/personal/uch/uch46.xlsx
+++ b/sputnik/personal/uch/uch46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -37,6 +34,12 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №46</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,37 +124,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -176,17 +153,14 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -510,126 +484,126 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>43221</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="5">
+        <v>9647.1200000000008</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>43225</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>9647.1200000000008</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>43225</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>43253</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="10"/>
+        <v>1000</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>43281</v>
+      <c r="A5" s="12">
+        <v>43253</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>43316</v>
+      <c r="A6" s="12">
+        <v>43281</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6">
-        <v>1647.12</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>43316</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6">
+        <v>1647.12</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>43586</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9510.16</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>43649</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
-        <v>9510.16</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>43649</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11">
+      <c r="C9" s="8"/>
+      <c r="D9" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>43683</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8">
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
         <v>4510.16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch46.xlsx
+++ b/sputnik/personal/uch/uch46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Наименование / садовый участок №46</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -128,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,6 +608,30 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8">
         <v>4510.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11">
+        <v>10700</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>44014</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch46.xlsx
+++ b/sputnik/personal/uch/uch46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C13" sqref="C13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,6 +633,36 @@
       <c r="D12" s="11">
         <v>3000</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>44050</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch46.xlsx
+++ b/sputnik/personal/uch/uch46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -479,7 +479,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,10 +647,16 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="15">
+        <v>44082</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11">
+        <v>2700</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>

--- a/sputnik/personal/uch/uch46.xlsx
+++ b/sputnik/personal/uch/uch46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Оплата членского взноса 2020/2021</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2021/2022</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="O12" sqref="O11:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -659,16 +665,28 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11">
+        <v>11410.48</v>
+      </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="15">
+        <v>44357</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>2500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch46.xlsx
+++ b/sputnik/personal/uch/uch46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O11:O12"/>
+      <selection activeCell="A17" sqref="A17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,6 +687,30 @@
       <c r="D16" s="11">
         <v>2500</v>
       </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>44377</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8">
+        <v>1529.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch46.xlsx
+++ b/sputnik/personal/uch/uch46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D19"/>
+      <selection activeCell="D18" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,10 +701,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="15">
+        <v>44411</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8">
+        <v>381</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>

--- a/sputnik/personal/uch/uch46.xlsx
+++ b/sputnik/personal/uch/uch46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D16:D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -713,10 +713,16 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="15">
+        <v>44474</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="11">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch46.xlsx
+++ b/sputnik/personal/uch/uch46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +175,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -722,6 +723,72 @@
       <c r="C19" s="8"/>
       <c r="D19" s="11">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>44508</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>44537</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="11">
+        <f>SUM(C3:C25)</f>
+        <v>41267.759999999995</v>
+      </c>
+      <c r="D26" s="11">
+        <f>SUM(D3:D25)</f>
+        <v>38267.760000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="16">
+        <f>SUM(D26,-C26)</f>
+        <v>-2999.9999999999927</v>
       </c>
     </row>
   </sheetData>
